--- a/biology/Médecine/Institut_des_organes_sensoriels/Institut_des_organes_sensoriels.xlsx
+++ b/biology/Médecine/Institut_des_organes_sensoriels/Institut_des_organes_sensoriels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut des Organes Sensoriels est un institut de recherche situé à Kajetany en Pologne, établi en 2008. Sa forme juridique est représentée sous la forme d'une société à responsabilité limitée.
 La recherche appliquée dans les domaines de la prophylaxie, du diagnostic, du traitement et de la réhabilitation des maladies des organes sensoriels est la mission que l'Institut des Organes Sensoriels s'est donnée en 2008. Une autre de ses missions est l'enseignement et la conduite d'ateliers de formation. 
-Le premier projet fut l'étude, la réalisation, les tests et la mise en œuvre du programme concernant la Plateforme d'Examens Sensoriels. Cette Plateforme est destinée au dépistage des maladies de l'ouïe, de la vue et de l'élocution chez les enfants et les jeunes et des personnes ayant des besoins de rééducation particuliers[1].
-La seconde action fut l'organisation des ateliers de formation dans le domaine de l'otochirurgie moderne et plus particulièrement de celui des implants auditifs[1].
+Le premier projet fut l'étude, la réalisation, les tests et la mise en œuvre du programme concernant la Plateforme d'Examens Sensoriels. Cette Plateforme est destinée au dépistage des maladies de l'ouïe, de la vue et de l'élocution chez les enfants et les jeunes et des personnes ayant des besoins de rééducation particuliers.
+La seconde action fut l'organisation des ateliers de formation dans le domaine de l'otochirurgie moderne et plus particulièrement de celui des implants auditifs.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2009
 Médaille d'or avec mention spéciale – Bruxelles
@@ -565,7 +579,9 @@
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Institut de physiologie et de pathologie auditive de Varsovie
 Centre de l’audition et de la Medincus</t>
